--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -874,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1148,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -818,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,7 +829,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2082,7 +2082,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="4"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -886,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2081,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
